--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2558709.816834468</v>
+        <v>-2561621.403459528</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>215.0845781150035</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>97.26234557100804</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3925150846859409</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>37.47436621928167</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>106.2430517024117</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>162.9729678193015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596165</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>225.1346772411285</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>35.74312730177323</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>8.013551280668011</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>113.0635736876589</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>17.07934985336131</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>167.890836835426</v>
       </c>
       <c r="E8" t="n">
-        <v>116.8635265187705</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9277415519438</v>
+        <v>11.92774155194384</v>
       </c>
       <c r="H8" t="n">
-        <v>304.9106247077351</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>80.36135769947617</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.5377351249805</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>79.52830484522032</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>27.2238740790194</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>138.1415617533798</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>219.0213381478052</v>
+        <v>225.8225806310913</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4770723577568</v>
       </c>
       <c r="H10" t="n">
-        <v>67.90191098808411</v>
+        <v>148.7671629921076</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>109.2226275092432</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>91.5863095056873</v>
       </c>
       <c r="T10" t="n">
         <v>221.4770776980095</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2364526109981</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,19 +1576,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>174.7683347992599</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>13.03790159951642</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>124.4121185570315</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>1.632620083626892</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>151.5133592021556</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2792,13 +2792,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541852</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3007,16 +3007,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652547</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,13 +3241,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972057</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3323,10 +3323,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652582</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652572</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4031,13 +4031,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652576</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808191</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.5447187946894</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>900.5447187946894</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>900.5447187946894</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E2" t="n">
-        <v>683.2875691835748</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F2" t="n">
-        <v>416.9099126163966</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429522</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
@@ -4340,10 +4340,10 @@
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946894</v>
+        <v>956.6107264999558</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946894</v>
+        <v>956.6107264999558</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946894</v>
+        <v>956.6107264999558</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946894</v>
+        <v>956.6107264999558</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946894</v>
+        <v>956.6107264999558</v>
       </c>
       <c r="Y2" t="n">
-        <v>900.5447187946894</v>
+        <v>690.2330699327779</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>333.3433060157014</v>
+        <v>326.869123378691</v>
       </c>
       <c r="C3" t="n">
-        <v>158.8902767345744</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D3" t="n">
-        <v>158.8902767345744</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>158.8902767345744</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>158.8902767345744</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.49359028364165</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.49359028364165</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4434,25 +4434,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098647</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413023</v>
+        <v>1017.002624835033</v>
       </c>
       <c r="U3" t="n">
-        <v>709.4101432413023</v>
+        <v>788.8667788718465</v>
       </c>
       <c r="V3" t="n">
-        <v>709.4101432413023</v>
+        <v>788.8667788718465</v>
       </c>
       <c r="W3" t="n">
-        <v>709.4101432413023</v>
+        <v>534.6294221436449</v>
       </c>
       <c r="X3" t="n">
-        <v>501.5586430357695</v>
+        <v>534.6294221436449</v>
       </c>
       <c r="Y3" t="n">
-        <v>501.5586430357695</v>
+        <v>326.869123378691</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.4177110298542</v>
+        <v>818.7467779998875</v>
       </c>
       <c r="C4" t="n">
-        <v>144.4815281019473</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4815281019473</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4815281019473</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735299</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>659.6853352735299</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="W4" t="n">
-        <v>659.6853352735299</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="X4" t="n">
-        <v>659.6853352735299</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.0661758600939</v>
+        <v>926.0629918407075</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044907</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>34.06092317356494</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4565,19 +4565,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4586,31 +4586,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471531</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>475.8035330399423</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110289997</v>
       </c>
       <c r="O6" t="n">
-        <v>904.2569522304914</v>
+        <v>813.1187583557294</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891328</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="V6" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="W6" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166541</v>
       </c>
       <c r="X6" t="n">
-        <v>851.7791688249642</v>
+        <v>680.0318376111213</v>
       </c>
       <c r="Y6" t="n">
-        <v>644.0188700600104</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635.162607493506</v>
+        <v>491.8677599769426</v>
       </c>
       <c r="C7" t="n">
-        <v>635.162607493506</v>
+        <v>322.9315770490356</v>
       </c>
       <c r="D7" t="n">
-        <v>485.0459680811703</v>
+        <v>322.9315770490356</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1328744987772</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008668</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008668</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
         <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>1037.603651467276</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>1037.603651467276</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U7" t="n">
-        <v>1037.603651467276</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V7" t="n">
-        <v>1037.603651467276</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.603651467276</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.603651467276</v>
+        <v>826.865969108007</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.8110723237457</v>
+        <v>606.0733899644769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.333475167548</v>
+        <v>599.5943031275997</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.333475167548</v>
+        <v>230.631786187188</v>
       </c>
       <c r="D8" t="n">
-        <v>1376.333475167548</v>
+        <v>61.04508231302027</v>
       </c>
       <c r="E8" t="n">
-        <v>1258.289508986971</v>
+        <v>61.04508231302027</v>
       </c>
       <c r="F8" t="n">
-        <v>847.3036041973638</v>
+        <v>54.09958156381681</v>
       </c>
       <c r="G8" t="n">
-        <v>431.2149763671175</v>
+        <v>42.05135777397454</v>
       </c>
       <c r="H8" t="n">
-        <v>123.2244463593043</v>
+        <v>42.05135777397454</v>
       </c>
       <c r="I8" t="n">
-        <v>42.05135777397484</v>
+        <v>42.05135777397454</v>
       </c>
       <c r="J8" t="n">
-        <v>146.3999902871476</v>
+        <v>146.3999902871462</v>
       </c>
       <c r="K8" t="n">
-        <v>353.5300590778748</v>
+        <v>353.5300590778714</v>
       </c>
       <c r="L8" t="n">
-        <v>647.3949869642738</v>
+        <v>647.3949869642682</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.045778391758</v>
+        <v>1006.04577839175</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.11372296123</v>
+        <v>1375.11372296122</v>
       </c>
       <c r="O8" t="n">
-        <v>1710.278856235964</v>
+        <v>1710.278856235953</v>
       </c>
       <c r="P8" t="n">
-        <v>1961.833542307581</v>
+        <v>1961.833542307568</v>
       </c>
       <c r="Q8" t="n">
-        <v>2102.567888698742</v>
+        <v>2102.567888698727</v>
       </c>
       <c r="R8" t="n">
-        <v>2102.567888698742</v>
+        <v>2102.567888698727</v>
       </c>
       <c r="S8" t="n">
-        <v>2102.567888698742</v>
+        <v>2102.567888698727</v>
       </c>
       <c r="T8" t="n">
-        <v>2102.567888698742</v>
+        <v>2102.567888698727</v>
       </c>
       <c r="U8" t="n">
-        <v>2102.567888698742</v>
+        <v>2102.567888698727</v>
       </c>
       <c r="V8" t="n">
-        <v>2102.567888698742</v>
+        <v>2102.567888698727</v>
       </c>
       <c r="W8" t="n">
-        <v>1749.799233428628</v>
+        <v>1749.799233428613</v>
       </c>
       <c r="X8" t="n">
-        <v>1376.333475167548</v>
+        <v>1376.333475167533</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376.333475167548</v>
+        <v>986.1941431917214</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>808.1176128514696</v>
+        <v>915.9480966133276</v>
       </c>
       <c r="C9" t="n">
-        <v>633.6645835703426</v>
+        <v>741.4950673322006</v>
       </c>
       <c r="D9" t="n">
-        <v>484.7301739090914</v>
+        <v>592.5606576709494</v>
       </c>
       <c r="E9" t="n">
-        <v>325.4927189036359</v>
+        <v>433.3232026654939</v>
       </c>
       <c r="F9" t="n">
-        <v>178.9581609305208</v>
+        <v>286.7886446923789</v>
       </c>
       <c r="G9" t="n">
-        <v>42.05135777397484</v>
+        <v>149.8818415358328</v>
       </c>
       <c r="H9" t="n">
-        <v>42.05135777397484</v>
+        <v>69.55022048005475</v>
       </c>
       <c r="I9" t="n">
-        <v>42.05135777397484</v>
+        <v>42.05135777397454</v>
       </c>
       <c r="J9" t="n">
-        <v>85.38284148213005</v>
+        <v>85.38284148212911</v>
       </c>
       <c r="K9" t="n">
-        <v>237.5980736014723</v>
+        <v>237.5980736014702</v>
       </c>
       <c r="L9" t="n">
-        <v>757.9836260544108</v>
+        <v>488.5927788674423</v>
       </c>
       <c r="M9" t="n">
-        <v>1185.102398185864</v>
+        <v>987.8063608197065</v>
       </c>
       <c r="N9" t="n">
-        <v>1520.031376881945</v>
+        <v>1508.191913272641</v>
       </c>
       <c r="O9" t="n">
-        <v>1804.206163502951</v>
+        <v>1792.366699893646</v>
       </c>
       <c r="P9" t="n">
-        <v>2012.94841681477</v>
+        <v>2001.108953205464</v>
       </c>
       <c r="Q9" t="n">
-        <v>2102.567888698742</v>
+        <v>2090.728425089434</v>
       </c>
       <c r="R9" t="n">
-        <v>2102.567888698742</v>
+        <v>2102.567888698727</v>
       </c>
       <c r="S9" t="n">
-        <v>2102.567888698742</v>
+        <v>1963.030957634707</v>
       </c>
       <c r="T9" t="n">
-        <v>2102.567888698742</v>
+        <v>1963.030957634707</v>
       </c>
       <c r="U9" t="n">
-        <v>1881.334213801969</v>
+        <v>1734.927340835625</v>
       </c>
       <c r="V9" t="n">
-        <v>1646.182105570226</v>
+        <v>1499.775232603882</v>
       </c>
       <c r="W9" t="n">
-        <v>1391.944748842024</v>
+        <v>1499.775232603882</v>
       </c>
       <c r="X9" t="n">
-        <v>1184.093248636492</v>
+        <v>1291.92373239835</v>
       </c>
       <c r="Y9" t="n">
-        <v>976.3329498715377</v>
+        <v>1084.163433633396</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>429.6919689910701</v>
+        <v>805.3995588220324</v>
       </c>
       <c r="C10" t="n">
-        <v>260.7557860631632</v>
+        <v>805.3995588220324</v>
       </c>
       <c r="D10" t="n">
-        <v>110.6391466508275</v>
+        <v>655.2829194096967</v>
       </c>
       <c r="E10" t="n">
-        <v>110.6391466508275</v>
+        <v>507.3698258273035</v>
       </c>
       <c r="F10" t="n">
-        <v>110.6391466508275</v>
+        <v>360.4798783293932</v>
       </c>
       <c r="G10" t="n">
-        <v>110.6391466508275</v>
+        <v>192.321219382164</v>
       </c>
       <c r="H10" t="n">
-        <v>42.05135777397484</v>
+        <v>42.05135777397454</v>
       </c>
       <c r="I10" t="n">
-        <v>42.05135777397484</v>
+        <v>42.05135777397454</v>
       </c>
       <c r="J10" t="n">
-        <v>55.58866215860144</v>
+        <v>55.58866215860075</v>
       </c>
       <c r="K10" t="n">
-        <v>207.6714484717174</v>
+        <v>207.6714484717161</v>
       </c>
       <c r="L10" t="n">
-        <v>457.8114892847499</v>
+        <v>457.8114892847477</v>
       </c>
       <c r="M10" t="n">
-        <v>731.938213194908</v>
+        <v>731.9382131949048</v>
       </c>
       <c r="N10" t="n">
-        <v>1004.98143273569</v>
+        <v>1004.981432735686</v>
       </c>
       <c r="O10" t="n">
-        <v>1241.164743792817</v>
+        <v>1241.164743792812</v>
       </c>
       <c r="P10" t="n">
-        <v>1419.739686101112</v>
+        <v>1419.739686101106</v>
       </c>
       <c r="Q10" t="n">
-        <v>1459.940639733127</v>
+        <v>1459.940639733121</v>
       </c>
       <c r="R10" t="n">
-        <v>1459.940639733127</v>
+        <v>1349.614753360148</v>
       </c>
       <c r="S10" t="n">
-        <v>1459.940639733127</v>
+        <v>1257.103329617029</v>
       </c>
       <c r="T10" t="n">
-        <v>1236.226419836147</v>
+        <v>1033.38910972005</v>
       </c>
       <c r="U10" t="n">
-        <v>947.0986899260481</v>
+        <v>1033.38910972005</v>
       </c>
       <c r="V10" t="n">
-        <v>947.0986899260481</v>
+        <v>1033.38910972005</v>
       </c>
       <c r="W10" t="n">
-        <v>657.6815198890874</v>
+        <v>1033.38910972005</v>
       </c>
       <c r="X10" t="n">
-        <v>429.6919689910701</v>
+        <v>805.3995588220324</v>
       </c>
       <c r="Y10" t="n">
-        <v>429.6919689910701</v>
+        <v>805.3995588220324</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,25 +5054,25 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2203.383708318259</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5309,7 +5309,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>404.3737046864766</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>237.1776054013565</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>95.46577424355459</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,16 +5838,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6075,19 +6075,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1824.417283336614</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1569.732795130727</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.315625093766</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6312,16 +6312,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954159</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380737</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311331</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6552,7 +6552,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
         <v>483.825546038073</v>
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,19 +6692,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6786,7 +6786,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F34" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384016</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.0944824954149</v>
@@ -6871,19 +6871,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,7 +6971,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7026,16 +7026,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311316</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,7 +7154,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7260,16 +7260,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7369,10 +7369,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,25 +7591,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7640,49 +7640,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7737,7 +7737,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7795,7 +7795,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,7 +8143,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094458</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>92.05878169167801</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>5.262887399594092</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127288</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8474,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>3.580947641321302</v>
+        <v>3.580947641322098</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,13 +8535,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>272.1119668555202</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>116.0231531002216</v>
+        <v>188.846193323265</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>187.3298724816723</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>33.56261566051978</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>166.8457919572583</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776173</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>115.0273700322152</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>146.8818405748173</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>266.3600963310517</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.257951202384675</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>273.1465727897277</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>127.7255247667965</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>79.63321623493864</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26317,28 +26317,28 @@
         <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225016</v>
       </c>
       <c r="H2" t="n">
+        <v>20178.66499225016</v>
+      </c>
+      <c r="I2" t="n">
         <v>20178.66499225015</v>
       </c>
-      <c r="I2" t="n">
-        <v>20178.66499225016</v>
-      </c>
       <c r="J2" t="n">
+        <v>20526.04424660709</v>
+      </c>
+      <c r="K2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.04424660709</v>
@@ -26347,13 +26347,13 @@
         <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="O2" t="n">
-        <v>20526.04424660708</v>
-      </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>274462.8686734675</v>
+        <v>274462.8686734641</v>
       </c>
       <c r="E3" t="n">
-        <v>617754.269275585</v>
+        <v>617754.2692755887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.189813961640798e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>88426.87241274583</v>
+        <v>88426.87241274575</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66291.6427762021</v>
+        <v>66291.64277620112</v>
       </c>
       <c r="M3" t="n">
-        <v>161251.5141937644</v>
+        <v>161251.5141937655</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363169</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>150472.0434596203</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="D4" t="n">
-        <v>170069.395038226</v>
+        <v>170069.3950382271</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756537</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756628</v>
       </c>
       <c r="J4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985005</v>
       </c>
       <c r="L4" t="n">
+        <v>17328.05961985013</v>
+      </c>
+      <c r="M4" t="n">
         <v>17328.05961985006</v>
       </c>
-      <c r="M4" t="n">
-        <v>17328.05961985005</v>
-      </c>
       <c r="N4" t="n">
-        <v>17328.05961985007</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="O4" t="n">
         <v>17328.05961985006</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985004</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>83888.39126761608</v>
+        <v>83888.39126761581</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-877377.3716743614</v>
+        <v>-877806.9305409502</v>
       </c>
       <c r="C6" t="n">
         <v>-291065.0256442059</v>
       </c>
       <c r="D6" t="n">
-        <v>-507894.6107327025</v>
+        <v>-507894.6107327</v>
       </c>
       <c r="E6" t="n">
-        <v>-708035.3344639984</v>
+        <v>-708070.0723894378</v>
       </c>
       <c r="F6" t="n">
-        <v>-90281.06518841357</v>
+        <v>-90315.80311384911</v>
       </c>
       <c r="G6" t="n">
-        <v>-90281.06518841354</v>
+        <v>-90315.80311384924</v>
       </c>
       <c r="H6" t="n">
-        <v>-90281.06518841354</v>
+        <v>-90315.8031138494</v>
       </c>
       <c r="I6" t="n">
-        <v>-90281.06518841356</v>
+        <v>-90315.80311384928</v>
       </c>
       <c r="J6" t="n">
-        <v>-188393.0036399042</v>
+        <v>-188393.0036399041</v>
       </c>
       <c r="K6" t="n">
-        <v>-99966.13122715839</v>
+        <v>-99966.13122715836</v>
       </c>
       <c r="L6" t="n">
-        <v>-166257.7740033605</v>
+        <v>-166257.7740033595</v>
       </c>
       <c r="M6" t="n">
-        <v>-261217.6454209228</v>
+        <v>-261217.6454209239</v>
       </c>
       <c r="N6" t="n">
-        <v>-99966.13122715839</v>
+        <v>-99966.13122715836</v>
       </c>
       <c r="O6" t="n">
         <v>-119393.8492207901</v>
       </c>
       <c r="P6" t="n">
-        <v>-99966.13122715839</v>
+        <v>-99966.13122715834</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>839.5302458438173</v>
+        <v>839.5302458438141</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>525.6419721746854</v>
+        <v>525.6419721746818</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,19 +26802,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.487267452050998e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203961</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.131996084170948e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203961</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225.4752320743389</v>
+        <v>225.4752320743361</v>
       </c>
       <c r="E3" t="n">
-        <v>528.4452544978565</v>
+        <v>528.4452544978597</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>261.9280921731792</v>
+        <v>261.9280921731757</v>
       </c>
       <c r="E4" t="n">
-        <v>647.0663159249627</v>
+        <v>647.0663159249666</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>261.9280921731792</v>
+        <v>261.9280921731753</v>
       </c>
       <c r="M4" t="n">
-        <v>647.0663159249627</v>
+        <v>647.0663159249668</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.487267452050998e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203961</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>261.9280921731792</v>
+        <v>261.9280921731757</v>
       </c>
       <c r="M4" t="n">
-        <v>647.0663159249627</v>
+        <v>647.0663159249666</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>180.8704178953176</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>82.88087238636126</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.52928891681965</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.3666213655951</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>73.58892847952555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117122</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.61168553279325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.431034882095</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>102.6175812290064</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590693</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>170.0298579017042</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>197.6691444966364</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>66.76840649427837</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>187.6398143902325</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>186.7922047852569</v>
       </c>
       <c r="E8" t="n">
-        <v>265.0668435534913</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.9106247077352</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>80.36135769947666</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>132.1123490750253</v>
+        <v>132.1123490750256</v>
       </c>
       <c r="T8" t="n">
         <v>208.3218047352618</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27947,10 +27947,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.79539139358999</v>
+        <v>15.26708654836973</v>
       </c>
       <c r="I9" t="n">
-        <v>27.22387407901917</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>138.1415617533797</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>192.8861598652889</v>
       </c>
       <c r="U9" t="n">
-        <v>6.801242483286018</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4770723577568</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>80.86525200402345</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.9231625788755</v>
+        <v>109.9231625788757</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>109.2226275092429</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.6333278520116</v>
+        <v>106.0470183463244</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2364526109981</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.374995963191223</v>
+        <v>3.37499596319121</v>
       </c>
       <c r="H8" t="n">
-        <v>34.56417740803212</v>
+        <v>34.56417740803199</v>
       </c>
       <c r="I8" t="n">
-        <v>130.1145318709297</v>
+        <v>130.1145318709293</v>
       </c>
       <c r="J8" t="n">
-        <v>286.4485636309013</v>
+        <v>286.4485636309002</v>
       </c>
       <c r="K8" t="n">
-        <v>429.3121427527859</v>
+        <v>429.3121427527842</v>
       </c>
       <c r="L8" t="n">
-        <v>532.5996754612993</v>
+        <v>532.5996754612974</v>
       </c>
       <c r="M8" t="n">
-        <v>592.6197599217012</v>
+        <v>592.6197599216989</v>
       </c>
       <c r="N8" t="n">
-        <v>602.2089672021183</v>
+        <v>602.208967202116</v>
       </c>
       <c r="O8" t="n">
-        <v>568.6488510931356</v>
+        <v>568.6488510931334</v>
       </c>
       <c r="P8" t="n">
-        <v>485.3286382518522</v>
+        <v>485.3286382518504</v>
       </c>
       <c r="Q8" t="n">
-        <v>364.4615953200664</v>
+        <v>364.461595320065</v>
       </c>
       <c r="R8" t="n">
-        <v>212.0045901728108</v>
+        <v>212.00459017281</v>
       </c>
       <c r="S8" t="n">
-        <v>76.90772051122006</v>
+        <v>76.90772051121978</v>
       </c>
       <c r="T8" t="n">
-        <v>14.77404482886958</v>
+        <v>14.77404482886953</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2699996770552978</v>
+        <v>0.2699996770552968</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.805782038230098</v>
+        <v>1.805782038230091</v>
       </c>
       <c r="H9" t="n">
-        <v>17.44005284290647</v>
+        <v>17.4400528429064</v>
       </c>
       <c r="I9" t="n">
-        <v>62.17275877239591</v>
+        <v>62.17275877239567</v>
       </c>
       <c r="J9" t="n">
-        <v>170.6068021294497</v>
+        <v>170.6068021294491</v>
       </c>
       <c r="K9" t="n">
-        <v>291.5941986908663</v>
+        <v>291.5941986908651</v>
       </c>
       <c r="L9" t="n">
-        <v>392.0843850990394</v>
+        <v>392.0843850990379</v>
       </c>
       <c r="M9" t="n">
-        <v>457.5439839848804</v>
+        <v>457.5439839848787</v>
       </c>
       <c r="N9" t="n">
-        <v>469.6538117763446</v>
+        <v>469.6538117763428</v>
       </c>
       <c r="O9" t="n">
-        <v>429.6414834555619</v>
+        <v>429.6414834555602</v>
       </c>
       <c r="P9" t="n">
-        <v>344.8251683353596</v>
+        <v>344.8251683353583</v>
       </c>
       <c r="Q9" t="n">
-        <v>230.5064931607402</v>
+        <v>230.5064931607393</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1168883034442</v>
+        <v>112.1168883034437</v>
       </c>
       <c r="S9" t="n">
-        <v>33.54160935045815</v>
+        <v>33.54160935045802</v>
       </c>
       <c r="T9" t="n">
-        <v>7.278568829532715</v>
+        <v>7.278568829532688</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1188014498835591</v>
+        <v>0.1188014498835586</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.513907000701965</v>
+        <v>1.51390700070196</v>
       </c>
       <c r="H10" t="n">
-        <v>13.46000951533203</v>
+        <v>13.46000951533198</v>
       </c>
       <c r="I10" t="n">
-        <v>45.52731234838276</v>
+        <v>45.52731234838259</v>
       </c>
       <c r="J10" t="n">
-        <v>107.0332249496289</v>
+        <v>107.0332249496285</v>
       </c>
       <c r="K10" t="n">
-        <v>175.8884678997374</v>
+        <v>175.8884678997367</v>
       </c>
       <c r="L10" t="n">
-        <v>225.0766826316359</v>
+        <v>225.076682631635</v>
       </c>
       <c r="M10" t="n">
-        <v>237.3118037554908</v>
+        <v>237.3118037554899</v>
       </c>
       <c r="N10" t="n">
-        <v>231.6690594801473</v>
+        <v>231.6690594801464</v>
       </c>
       <c r="O10" t="n">
-        <v>213.9838731537652</v>
+        <v>213.9838731537643</v>
       </c>
       <c r="P10" t="n">
-        <v>183.1001703394449</v>
+        <v>183.1001703394442</v>
       </c>
       <c r="Q10" t="n">
-        <v>126.7690671224164</v>
+        <v>126.7690671224159</v>
       </c>
       <c r="R10" t="n">
-        <v>68.07076386792654</v>
+        <v>68.07076386792627</v>
       </c>
       <c r="S10" t="n">
-        <v>26.38327018496061</v>
+        <v>26.38327018496051</v>
       </c>
       <c r="T10" t="n">
-        <v>6.468511730272033</v>
+        <v>6.468511730272008</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08257674549283457</v>
+        <v>0.08257674549283427</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33506,10 +33506,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N33" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33746,10 +33746,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,19 +34217,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34457,10 +34457,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,7 +34863,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458918</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>263.7138800015061</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>123.5028874333351</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.402659104215</v>
+        <v>105.4026591042139</v>
       </c>
       <c r="K8" t="n">
-        <v>209.2222917078053</v>
+        <v>209.2222917078037</v>
       </c>
       <c r="L8" t="n">
-        <v>296.833260491312</v>
+        <v>296.8332604913101</v>
       </c>
       <c r="M8" t="n">
-        <v>362.2735266944285</v>
+        <v>362.2735266944262</v>
       </c>
       <c r="N8" t="n">
-        <v>372.7959036055274</v>
+        <v>372.7959036055251</v>
       </c>
       <c r="O8" t="n">
-        <v>338.5506396714488</v>
+        <v>338.5506396714467</v>
       </c>
       <c r="P8" t="n">
-        <v>254.0956424965826</v>
+        <v>254.0956424965808</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.1559054456169</v>
+        <v>142.1559054456156</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>43.76917546278304</v>
+        <v>43.76917546278239</v>
       </c>
       <c r="K9" t="n">
-        <v>153.7527597165073</v>
+        <v>153.7527597165061</v>
       </c>
       <c r="L9" t="n">
-        <v>525.6419721746854</v>
+        <v>253.5300053191638</v>
       </c>
       <c r="M9" t="n">
-        <v>431.4331031630837</v>
+        <v>504.2561433861254</v>
       </c>
       <c r="N9" t="n">
-        <v>338.3120996930113</v>
+        <v>525.6419721746818</v>
       </c>
       <c r="O9" t="n">
-        <v>287.0452390111174</v>
+        <v>287.0452390111158</v>
       </c>
       <c r="P9" t="n">
-        <v>210.8507609210294</v>
+        <v>210.8507609210281</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.52471907471869</v>
+        <v>90.52471907471781</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.95905415080061</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>13.67404483295617</v>
+        <v>13.67404483295577</v>
       </c>
       <c r="K10" t="n">
-        <v>153.6189760738546</v>
+        <v>153.6189760738539</v>
       </c>
       <c r="L10" t="n">
-        <v>252.666707891952</v>
+        <v>252.6667078919512</v>
       </c>
       <c r="M10" t="n">
-        <v>276.8956807173314</v>
+        <v>276.8956807173305</v>
       </c>
       <c r="N10" t="n">
-        <v>275.8012318593759</v>
+        <v>275.801231859375</v>
       </c>
       <c r="O10" t="n">
-        <v>238.5690010678048</v>
+        <v>238.569001067804</v>
       </c>
       <c r="P10" t="n">
-        <v>180.3787296043384</v>
+        <v>180.3787296043377</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.60702387072202</v>
+        <v>40.60702387072153</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36768,10 +36768,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37154,10 +37154,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N33" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37394,10 +37394,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,19 +37865,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38105,10 +38105,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
